--- a/ocms/target/test-classes/TestData/EmailTemplateData.xlsx
+++ b/ocms/target/test-classes/TestData/EmailTemplateData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13710" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13440" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CreateDepartment" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Department Name</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>Free</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Hello email Template</t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,9 +502,10 @@
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,8 +524,11 @@
       <c r="F1" t="s">
         <v>12</v>
       </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -536,6 +546,9 @@
       </c>
       <c r="F2" t="s">
         <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
